--- a/20170501-mnpollv3-foreign-policy/builds/development/data/_raw/Trump Syria Travel Ban Immigration.xlsx
+++ b/20170501-mnpollv3-foreign-policy/builds/development/data/_raw/Trump Syria Travel Ban Immigration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40520" yWindow="2600" windowWidth="24940" windowHeight="16100"/>
+    <workbookView xWindow="40640" yWindow="2980" windowWidth="24940" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,12 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -293,9 +287,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -323,6 +314,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -679,7 +679,7 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -699,16 +699,16 @@
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="32">
         <v>70</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="33">
         <v>21</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="34">
         <v>9</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <f>B7/100</f>
         <v>0.7</v>
       </c>
@@ -725,16 +725,16 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>61</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>28</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>11</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <f t="shared" ref="E8:E25" si="0">B8/100</f>
         <v>0.61</v>
       </c>
@@ -751,16 +751,16 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>72</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>22</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>6</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
@@ -777,16 +777,16 @@
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>75</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>15</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>10</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -803,16 +803,16 @@
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>77</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>13</v>
       </c>
       <c r="D11" s="8">
         <v>10</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
@@ -829,16 +829,16 @@
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>81</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>17</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
@@ -855,16 +855,16 @@
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>60</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>25</v>
       </c>
       <c r="D13" s="8">
         <v>15</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -881,16 +881,16 @@
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>63</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <v>27</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>10</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
@@ -907,16 +907,16 @@
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>69</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <v>24</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>7</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
@@ -933,16 +933,16 @@
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>72</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>16</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>12</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
@@ -959,16 +959,16 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>75</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>18</v>
       </c>
       <c r="D17" s="8">
         <v>7</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="27">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -985,16 +985,16 @@
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>76</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>17</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>7</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
@@ -1011,16 +1011,16 @@
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>67</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>23</v>
       </c>
       <c r="D19" s="8">
         <v>10</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
@@ -1037,16 +1037,16 @@
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>47</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>45</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>8</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
@@ -1063,16 +1063,16 @@
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>93</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>2</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>5</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
@@ -1089,16 +1089,16 @@
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>71</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>18</v>
       </c>
       <c r="D22" s="8">
         <v>11</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
@@ -1115,16 +1115,16 @@
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="26">
         <v>95</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>1</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="25">
         <v>4</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="27">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
@@ -1141,16 +1141,16 @@
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="26">
         <v>51</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <v>38</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="25">
         <v>11</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="27">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
@@ -1167,16 +1167,16 @@
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="26">
         <v>65</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <v>23</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="25">
         <v>12</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="27">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="A26" s="4"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="23" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1216,19 +1216,19 @@
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="29">
         <v>33</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="30">
         <v>25</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="31">
         <v>38</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="31">
         <v>4</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="28">
         <f>B32/100</f>
         <v>0.33</v>
       </c>
@@ -1249,19 +1249,19 @@
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>20</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <v>33</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="13">
         <v>45</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="13">
         <v>2</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="28">
         <f t="shared" ref="F33:F50" si="3">B33/100</f>
         <v>0.2</v>
       </c>
@@ -1282,19 +1282,19 @@
       <c r="A34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>29</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <v>30</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="21">
         <v>34</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="21">
         <v>7</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="28">
         <f t="shared" si="3"/>
         <v>0.28999999999999998</v>
       </c>
@@ -1315,19 +1315,19 @@
       <c r="A35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>47</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <v>16</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="21">
         <v>35</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="21">
         <v>2</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="28">
         <f t="shared" si="3"/>
         <v>0.47</v>
       </c>
@@ -1348,10 +1348,10 @@
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="14">
         <v>47</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="20">
         <v>13</v>
       </c>
       <c r="D36" s="8">
@@ -1360,7 +1360,7 @@
       <c r="E36" s="8">
         <v>5</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="28">
         <f t="shared" si="3"/>
         <v>0.47</v>
       </c>
@@ -1381,19 +1381,19 @@
       <c r="A37" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <v>38</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>18</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="13">
         <v>43</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="13">
         <v>1</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="28">
         <f t="shared" si="3"/>
         <v>0.38</v>
       </c>
@@ -1414,10 +1414,10 @@
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="14">
         <v>29</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="15">
         <v>32</v>
       </c>
       <c r="D38" s="8">
@@ -1426,7 +1426,7 @@
       <c r="E38" s="8">
         <v>6</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="28">
         <f t="shared" si="3"/>
         <v>0.28999999999999998</v>
       </c>
@@ -1447,19 +1447,19 @@
       <c r="A39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="11">
         <v>18</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <v>31</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>46</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="13">
         <v>5</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="28">
         <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
@@ -1480,19 +1480,19 @@
       <c r="A40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="11">
         <v>34</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="16">
         <v>30</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>34</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="13">
         <v>2</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="28">
         <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
@@ -1513,19 +1513,19 @@
       <c r="A41" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="11">
         <v>37</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="16">
         <v>22</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="13">
         <v>34</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="13">
         <v>7</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="28">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
@@ -1546,10 +1546,10 @@
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="14">
         <v>40</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="15">
         <v>16</v>
       </c>
       <c r="D42" s="8">
@@ -1558,7 +1558,7 @@
       <c r="E42" s="8">
         <v>1</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="28">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
@@ -1579,19 +1579,19 @@
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="17">
         <v>45</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>17</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="13">
         <v>37</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="13">
         <v>1</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="28">
         <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
@@ -1612,10 +1612,10 @@
       <c r="A44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="14">
         <v>26</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="15">
         <v>30</v>
       </c>
       <c r="D44" s="8">
@@ -1624,7 +1624,7 @@
       <c r="E44" s="8">
         <v>6</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="28">
         <f t="shared" si="3"/>
         <v>0.26</v>
       </c>
@@ -1645,19 +1645,19 @@
       <c r="A45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="11">
         <v>6</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="16">
         <v>53</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="13">
         <v>40</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="13">
         <v>1</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="28">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
@@ -1678,19 +1678,19 @@
       <c r="A46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="11">
         <v>61</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="16">
         <v>3</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="13">
         <v>34</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="13">
         <v>2</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="28">
         <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
@@ -1711,10 +1711,10 @@
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <v>35</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>16</v>
       </c>
       <c r="D47" s="8">
@@ -1723,7 +1723,7 @@
       <c r="E47" s="8">
         <v>8</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="28">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
@@ -1744,19 +1744,19 @@
       <c r="A48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="11">
         <v>76</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="16">
         <v>0</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="25">
         <v>22</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="25">
         <v>2</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="28">
         <f t="shared" si="3"/>
         <v>0.76</v>
       </c>
@@ -1777,19 +1777,19 @@
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="26">
         <v>3</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="16">
         <v>45</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="25">
         <v>49</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="25">
         <v>3</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="28">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
@@ -1810,19 +1810,19 @@
       <c r="A50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="26">
         <v>21</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="16">
         <v>29</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="25">
         <v>42</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="25">
         <v>8</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="28">
         <f t="shared" si="3"/>
         <v>0.21</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:9" s="9" customFormat="1">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B54" s="1"/>
@@ -1875,28 +1875,28 @@
       <c r="A57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="29">
         <v>29</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="30">
         <v>65</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D57" s="31">
         <v>6</v>
       </c>
-      <c r="E57" s="22"/>
+      <c r="E57" s="19"/>
     </row>
     <row r="58" spans="1:9" s="9" customFormat="1" ht="15">
       <c r="A58" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="11">
         <v>15</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="16">
         <v>78</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="13">
         <v>7</v>
       </c>
     </row>
@@ -1904,13 +1904,13 @@
       <c r="A59" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="11">
         <v>22</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="16">
         <v>70</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="13">
         <v>8</v>
       </c>
     </row>
@@ -1918,13 +1918,13 @@
       <c r="A60" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="11">
         <v>42</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="16">
         <v>53</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1932,10 +1932,10 @@
       <c r="A61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="14">
         <v>50</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="20">
         <v>47</v>
       </c>
       <c r="D61" s="8">
@@ -1946,13 +1946,13 @@
       <c r="A62" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="11">
         <v>32</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="12">
         <v>63</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1960,10 +1960,10 @@
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="14">
         <v>26</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="15">
         <v>67</v>
       </c>
       <c r="D63" s="8">
@@ -1974,13 +1974,13 @@
       <c r="A64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="11">
         <v>26</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="16">
         <v>67</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="13">
         <v>7</v>
       </c>
     </row>
@@ -1988,13 +1988,13 @@
       <c r="A65" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="11">
         <v>27</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="16">
         <v>66</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="13">
         <v>7</v>
       </c>
     </row>
@@ -2002,13 +2002,13 @@
       <c r="A66" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="11">
         <v>32</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="16">
         <v>64</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2016,10 +2016,10 @@
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="14">
         <v>31</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="15">
         <v>63</v>
       </c>
       <c r="D67" s="8">
@@ -2030,13 +2030,13 @@
       <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="17">
         <v>34</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="18">
         <v>61</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2044,10 +2044,10 @@
       <c r="A69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="14">
         <v>26</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="15">
         <v>67</v>
       </c>
       <c r="D69" s="8">
@@ -2058,13 +2058,13 @@
       <c r="A70" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="11">
         <v>4</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="16">
         <v>95</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2072,13 +2072,13 @@
       <c r="A71" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="11">
         <v>54</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="16">
         <v>37</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="13">
         <v>9</v>
       </c>
     </row>
@@ -2086,10 +2086,10 @@
       <c r="A72" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="14">
         <v>30</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="20">
         <v>62</v>
       </c>
       <c r="D72" s="8">
@@ -2100,13 +2100,13 @@
       <c r="A73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="26">
         <v>69</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="16">
         <v>22</v>
       </c>
-      <c r="D73" s="28">
+      <c r="D73" s="25">
         <v>9</v>
       </c>
     </row>
@@ -2114,13 +2114,13 @@
       <c r="A74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74" s="26">
         <v>1</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="16">
         <v>97</v>
       </c>
-      <c r="D74" s="28">
+      <c r="D74" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2128,13 +2128,13 @@
       <c r="A75" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="29">
+      <c r="B75" s="26">
         <v>18</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="16">
         <v>74</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D75" s="25">
         <v>8</v>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:4" s="9" customFormat="1">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B79" s="1"/>
@@ -2176,28 +2176,28 @@
       <c r="A82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="29">
         <v>40</v>
       </c>
-      <c r="C82" s="33">
+      <c r="C82" s="30">
         <v>53</v>
       </c>
-      <c r="D82" s="34">
+      <c r="D82" s="31">
         <v>7</v>
       </c>
-      <c r="E82" s="22"/>
+      <c r="E82" s="19"/>
     </row>
     <row r="83" spans="1:5" s="9" customFormat="1" ht="15">
       <c r="A83" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="11">
         <v>28</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="16">
         <v>68</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2205,13 +2205,13 @@
       <c r="A84" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="11">
         <v>40</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="16">
         <v>50</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2219,13 +2219,13 @@
       <c r="A85" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="11">
         <v>48</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="16">
         <v>45</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="13">
         <v>7</v>
       </c>
     </row>
@@ -2233,10 +2233,10 @@
       <c r="A86" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="14">
         <v>52</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="20">
         <v>41</v>
       </c>
       <c r="D86" s="8">
@@ -2247,13 +2247,13 @@
       <c r="A87" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="11">
         <v>44</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C87" s="12">
         <v>50</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="13">
         <v>6</v>
       </c>
     </row>
@@ -2261,10 +2261,10 @@
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="14">
         <v>37</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="15">
         <v>55</v>
       </c>
       <c r="D88" s="8">
@@ -2275,13 +2275,13 @@
       <c r="A89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="11">
         <v>30</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="16">
         <v>61</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="13">
         <v>9</v>
       </c>
     </row>
@@ -2289,13 +2289,13 @@
       <c r="A90" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="11">
         <v>39</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="16">
         <v>54</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="13">
         <v>7</v>
       </c>
     </row>
@@ -2303,13 +2303,13 @@
       <c r="A91" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="11">
         <v>44</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="16">
         <v>50</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="13">
         <v>6</v>
       </c>
     </row>
@@ -2317,10 +2317,10 @@
       <c r="A92" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="14">
         <v>45</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="15">
         <v>49</v>
       </c>
       <c r="D92" s="8">
@@ -2331,13 +2331,13 @@
       <c r="A93" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="17">
         <v>45</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="18">
         <v>45</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2345,10 +2345,10 @@
       <c r="A94" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="14">
         <v>37</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="15">
         <v>58</v>
       </c>
       <c r="D94" s="8">
@@ -2359,13 +2359,13 @@
       <c r="A95" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="11">
         <v>15</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="16">
         <v>79</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="13">
         <v>6</v>
       </c>
     </row>
@@ -2373,13 +2373,13 @@
       <c r="A96" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="11">
         <v>60</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="16">
         <v>33</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="13">
         <v>7</v>
       </c>
     </row>
@@ -2387,10 +2387,10 @@
       <c r="A97" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="14">
         <v>46</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="20">
         <v>46</v>
       </c>
       <c r="D97" s="8">
@@ -2401,13 +2401,13 @@
       <c r="A98" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="29">
+      <c r="B98" s="26">
         <v>67</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="16">
         <v>22</v>
       </c>
-      <c r="D98" s="28">
+      <c r="D98" s="25">
         <v>11</v>
       </c>
     </row>
@@ -2415,13 +2415,13 @@
       <c r="A99" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="29">
+      <c r="B99" s="26">
         <v>10</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="16">
         <v>87</v>
       </c>
-      <c r="D99" s="28">
+      <c r="D99" s="25">
         <v>3</v>
       </c>
     </row>
@@ -2429,13 +2429,13 @@
       <c r="A100" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B100" s="29">
+      <c r="B100" s="26">
         <v>47</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="16">
         <v>46</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D100" s="25">
         <v>7</v>
       </c>
     </row>
